--- a/BackTest/2019-10-31 BackTest FNB.xlsx
+++ b/BackTest/2019-10-31 BackTest FNB.xlsx
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -17216,17 +17216,13 @@
         <v>16.66666666666664</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K481" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
@@ -17255,229 +17251,199 @@
         <v>16.69999999999997</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+      <c r="M482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
         <v>16.7</v>
       </c>
-      <c r="K482" t="n">
+      <c r="C483" t="n">
         <v>16.7</v>
       </c>
-      <c r="L482" t="inlineStr">
+      <c r="D483" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E483" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F483" t="n">
+        <v>8071.9191</v>
+      </c>
+      <c r="G483" t="n">
+        <v>16.69999999999996</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0</v>
+      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C484" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D484" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E484" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F484" t="n">
+        <v>7668.3233</v>
+      </c>
+      <c r="G484" t="n">
+        <v>16.69999999999996</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0</v>
+      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
+      <c r="M484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C485" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D485" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E485" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F485" t="n">
+        <v>43604.6706</v>
+      </c>
+      <c r="G485" t="n">
+        <v>16.69999999999996</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0</v>
+      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
+      <c r="M485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C486" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D486" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E486" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F486" t="n">
+        <v>86526.10769999999</v>
+      </c>
+      <c r="G486" t="n">
+        <v>16.69999999999996</v>
+      </c>
+      <c r="H486" t="n">
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0</v>
+      </c>
+      <c r="J486" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K486" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L486" t="inlineStr"/>
+      <c r="M486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C487" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D487" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E487" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F487" t="n">
+        <v>624115.5188</v>
+      </c>
+      <c r="G487" t="n">
+        <v>16.66666666666663</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0</v>
+      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L487" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M482" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C483" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D483" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E483" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F483" t="n">
-        <v>8071.9191</v>
-      </c>
-      <c r="G483" t="n">
-        <v>16.69999999999996</v>
-      </c>
-      <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>0</v>
-      </c>
-      <c r="J483" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K483" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M483" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C484" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D484" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E484" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F484" t="n">
-        <v>7668.3233</v>
-      </c>
-      <c r="G484" t="n">
-        <v>16.69999999999996</v>
-      </c>
-      <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>0</v>
-      </c>
-      <c r="J484" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K484" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L484" t="inlineStr"/>
-      <c r="M484" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C485" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D485" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E485" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F485" t="n">
-        <v>43604.6706</v>
-      </c>
-      <c r="G485" t="n">
-        <v>16.69999999999996</v>
-      </c>
-      <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>0</v>
-      </c>
-      <c r="J485" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K485" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M485" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C486" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D486" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E486" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F486" t="n">
-        <v>86526.10769999999</v>
-      </c>
-      <c r="G486" t="n">
-        <v>16.69999999999996</v>
-      </c>
-      <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>0</v>
-      </c>
-      <c r="J486" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K486" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M486" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C487" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D487" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E487" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F487" t="n">
-        <v>624115.5188</v>
-      </c>
-      <c r="G487" t="n">
-        <v>16.66666666666663</v>
-      </c>
-      <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>0</v>
-      </c>
-      <c r="J487" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K487" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17514,7 +17480,7 @@
         <v>16.6</v>
       </c>
       <c r="K488" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -17554,55 +17520,55 @@
         <v>0</v>
       </c>
       <c r="J489" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="K489" t="n">
         <v>16.6</v>
       </c>
-      <c r="L489" t="inlineStr">
+      <c r="L489" t="inlineStr"/>
+      <c r="M489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C490" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D490" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E490" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F490" t="n">
+        <v>158369.3753</v>
+      </c>
+      <c r="G490" t="n">
+        <v>16.5333333333333</v>
+      </c>
+      <c r="H490" t="n">
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0</v>
+      </c>
+      <c r="J490" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K490" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="L490" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M489" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C490" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D490" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E490" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F490" t="n">
-        <v>158369.3753</v>
-      </c>
-      <c r="G490" t="n">
-        <v>16.5333333333333</v>
-      </c>
-      <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>0</v>
-      </c>
-      <c r="J490" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K490" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17636,10 +17602,10 @@
         <v>0</v>
       </c>
       <c r="J491" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K491" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K491" t="n">
-        <v>16.5</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -17682,7 +17648,7 @@
         <v>16.5</v>
       </c>
       <c r="K492" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -17725,7 +17691,7 @@
         <v>16.3</v>
       </c>
       <c r="K493" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -17768,7 +17734,7 @@
         <v>16.2</v>
       </c>
       <c r="K494" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -17809,7 +17775,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -17843,16 +17809,14 @@
         <v>16.29999999999997</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>16.4</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -17886,16 +17850,14 @@
         <v>16.43333333333331</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -17929,16 +17891,14 @@
         <v>16.6333333333333</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -17972,16 +17932,14 @@
         <v>16.8333333333333</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>16.9</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -18015,16 +17973,14 @@
         <v>16.89999999999997</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -18065,7 +18021,7 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -18106,7 +18062,7 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -18147,7 +18103,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -18188,7 +18144,7 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -18229,7 +18185,7 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -18270,7 +18226,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -18311,7 +18267,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -18352,7 +18308,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -18393,7 +18349,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -18427,16 +18383,14 @@
         <v>16.49999999999998</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>16.4</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -18470,16 +18424,14 @@
         <v>16.53333333333331</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -18513,16 +18465,14 @@
         <v>16.66666666666664</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -18556,16 +18506,14 @@
         <v>16.83333333333331</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -18599,16 +18547,14 @@
         <v>16.93333333333331</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>16.9</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -18642,16 +18588,14 @@
         <v>16.96666666666664</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>17</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -18692,7 +18636,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -18733,7 +18677,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -18774,7 +18718,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -18815,7 +18759,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -18856,7 +18800,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -18897,7 +18841,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -18938,7 +18882,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -18979,7 +18923,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -19020,7 +18964,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -19061,7 +19005,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -19102,7 +19046,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -19143,7 +19087,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -19184,7 +19128,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -19225,7 +19169,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -19266,7 +19210,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -19307,7 +19251,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -19348,7 +19292,7 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -19389,7 +19333,7 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -19430,7 +19374,7 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -19471,7 +19415,7 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -19512,7 +19456,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -19553,7 +19497,7 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -19594,7 +19538,7 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -19635,7 +19579,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -19676,7 +19620,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -19717,7 +19661,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -19758,7 +19702,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -19799,7 +19743,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -19840,7 +19784,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -19881,7 +19825,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -19922,7 +19866,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -19963,7 +19907,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -20004,7 +19948,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -20045,7 +19989,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -20086,7 +20030,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -20127,7 +20071,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -20168,7 +20112,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -20209,7 +20153,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -20250,7 +20194,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
@@ -20291,7 +20235,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -20332,7 +20276,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -20373,7 +20317,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -20414,7 +20358,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -20455,7 +20399,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -20496,7 +20440,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -20537,7 +20481,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -20578,7 +20522,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -20619,7 +20563,7 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -20660,7 +20604,7 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -20701,7 +20645,7 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -20742,7 +20686,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -20783,7 +20727,7 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -20824,7 +20768,7 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -20865,7 +20809,7 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -20906,7 +20850,7 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -20947,7 +20891,7 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
@@ -20988,7 +20932,7 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L572" t="inlineStr">
         <is>
@@ -21029,7 +20973,7 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L573" t="inlineStr">
         <is>
@@ -21070,7 +21014,7 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L574" t="inlineStr">
         <is>
@@ -21111,7 +21055,7 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
@@ -21152,7 +21096,7 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L576" t="inlineStr">
         <is>
@@ -21193,7 +21137,7 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L577" t="inlineStr">
         <is>
@@ -21234,7 +21178,7 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L578" t="inlineStr">
         <is>
@@ -21275,7 +21219,7 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L579" t="inlineStr">
         <is>
@@ -21316,7 +21260,7 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L580" t="inlineStr">
         <is>
@@ -21357,7 +21301,7 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L581" t="inlineStr">
         <is>
@@ -21398,7 +21342,7 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L582" t="inlineStr">
         <is>
@@ -21432,16 +21376,14 @@
         <v>16.69999999999997</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L583" t="inlineStr">
         <is>
@@ -21475,16 +21417,14 @@
         <v>16.7333333333333</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L584" t="inlineStr">
         <is>
@@ -21525,7 +21465,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L585" t="inlineStr">
         <is>
@@ -21566,7 +21506,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L586" t="inlineStr">
         <is>
@@ -21607,7 +21547,7 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L587" t="inlineStr">
         <is>
@@ -21648,7 +21588,7 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L588" t="inlineStr">
         <is>
@@ -21682,16 +21622,14 @@
         <v>16.56666666666663</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L589" t="inlineStr">
         <is>
@@ -21725,16 +21663,14 @@
         <v>16.5333333333333</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L590" t="inlineStr">
         <is>
@@ -21768,16 +21704,14 @@
         <v>16.49999999999997</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L591" t="inlineStr">
         <is>
@@ -21811,16 +21745,14 @@
         <v>16.5333333333333</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="n">
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K592" t="n">
-        <v>16.5</v>
       </c>
       <c r="L592" t="inlineStr">
         <is>
@@ -21854,16 +21786,14 @@
         <v>16.56666666666663</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="n">
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K593" t="n">
-        <v>16.5</v>
       </c>
       <c r="L593" t="inlineStr">
         <is>
@@ -21897,16 +21827,14 @@
         <v>16.59999999999997</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="n">
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K594" t="n">
-        <v>16.5</v>
       </c>
       <c r="L594" t="inlineStr">
         <is>
@@ -21940,16 +21868,14 @@
         <v>16.59999999999996</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K595" t="n">
-        <v>16.5</v>
       </c>
       <c r="L595" t="inlineStr">
         <is>
@@ -21992,7 +21918,7 @@
         <v>16.6</v>
       </c>
       <c r="K596" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L596" t="inlineStr">
         <is>
@@ -22032,10 +21958,10 @@
         <v>0</v>
       </c>
       <c r="J597" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K597" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K597" t="n">
-        <v>16.5</v>
       </c>
       <c r="L597" t="inlineStr">
         <is>
@@ -22075,10 +22001,10 @@
         <v>0</v>
       </c>
       <c r="J598" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K598" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K598" t="n">
-        <v>16.5</v>
       </c>
       <c r="L598" t="inlineStr">
         <is>
@@ -22121,7 +22047,7 @@
         <v>16.5</v>
       </c>
       <c r="K599" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L599" t="inlineStr">
         <is>
@@ -22164,7 +22090,7 @@
         <v>16.5</v>
       </c>
       <c r="K600" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L600" t="inlineStr">
         <is>
@@ -22204,10 +22130,10 @@
         <v>0</v>
       </c>
       <c r="J601" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K601" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K601" t="n">
-        <v>16.5</v>
       </c>
       <c r="L601" t="inlineStr">
         <is>
@@ -22247,10 +22173,10 @@
         <v>0</v>
       </c>
       <c r="J602" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="K602" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L602" t="inlineStr">
         <is>
@@ -22290,10 +22216,10 @@
         <v>0</v>
       </c>
       <c r="J603" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K603" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K603" t="n">
-        <v>16.5</v>
       </c>
       <c r="L603" t="inlineStr">
         <is>
@@ -22336,7 +22262,7 @@
         <v>16.6</v>
       </c>
       <c r="K604" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
@@ -22370,16 +22296,14 @@
         <v>16.59999999999997</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L605" t="inlineStr">
         <is>
@@ -22413,16 +22337,14 @@
         <v>16.56666666666664</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K606" t="n">
-        <v>16.5</v>
       </c>
       <c r="L606" t="inlineStr">
         <is>
@@ -22456,16 +22378,14 @@
         <v>16.56666666666664</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K607" t="n">
-        <v>16.5</v>
       </c>
       <c r="L607" t="inlineStr">
         <is>
@@ -22499,16 +22419,14 @@
         <v>16.59999999999997</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L608" t="inlineStr">
         <is>
@@ -22542,16 +22460,14 @@
         <v>16.6333333333333</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L609" t="inlineStr">
         <is>
@@ -22585,16 +22501,14 @@
         <v>16.6333333333333</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="n">
         <v>16.6</v>
-      </c>
-      <c r="K610" t="n">
-        <v>16.5</v>
       </c>
       <c r="L610" t="inlineStr">
         <is>
@@ -22628,16 +22542,14 @@
         <v>16.6333333333333</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L611" t="inlineStr">
         <is>
@@ -22671,16 +22583,14 @@
         <v>16.6333333333333</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L612" t="inlineStr">
         <is>
@@ -22714,16 +22624,14 @@
         <v>16.66666666666664</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L613" t="inlineStr">
         <is>
@@ -22757,16 +22665,14 @@
         <v>16.66666666666663</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
       </c>
-      <c r="J614" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L614" t="inlineStr">
         <is>
@@ -22800,16 +22706,14 @@
         <v>16.8333333333333</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L615" t="inlineStr">
         <is>
@@ -22843,16 +22747,14 @@
         <v>16.96666666666664</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="n">
-        <v>17</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L616" t="inlineStr">
         <is>
@@ -22893,7 +22795,7 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L617" t="inlineStr">
         <is>
@@ -22934,7 +22836,7 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L618" t="inlineStr">
         <is>
@@ -22975,7 +22877,7 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L619" t="inlineStr">
         <is>
@@ -23016,7 +22918,7 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L620" t="inlineStr">
         <is>
@@ -23053,19 +22955,19 @@
         <v>0</v>
       </c>
       <c r="I621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>1</v>
+        <v>1.025120481927711</v>
       </c>
     </row>
     <row r="622">
@@ -23094,17 +22996,11 @@
         <v>0</v>
       </c>
       <c r="I622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="inlineStr"/>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23138,14 +23034,8 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="inlineStr"/>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23179,14 +23069,8 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="inlineStr"/>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23220,14 +23104,8 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="inlineStr"/>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23261,14 +23139,8 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="inlineStr"/>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -23302,14 +23174,8 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="inlineStr"/>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23343,14 +23209,8 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="inlineStr"/>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23384,14 +23244,8 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="inlineStr"/>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23425,14 +23279,8 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="inlineStr"/>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23466,14 +23314,8 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="inlineStr"/>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23507,14 +23349,8 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="inlineStr"/>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23548,14 +23384,8 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="inlineStr"/>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23589,14 +23419,8 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="inlineStr"/>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23630,14 +23454,8 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="inlineStr"/>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23671,14 +23489,8 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="inlineStr"/>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23712,14 +23524,8 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="inlineStr"/>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23753,14 +23559,8 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr"/>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23794,14 +23594,8 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr"/>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23835,14 +23629,8 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="inlineStr"/>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23876,14 +23664,8 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr"/>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23917,14 +23699,8 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="inlineStr"/>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23958,14 +23734,8 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="inlineStr"/>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23999,14 +23769,8 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="inlineStr"/>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -24040,14 +23804,8 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr"/>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -24081,14 +23839,8 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="inlineStr"/>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -24122,14 +23874,8 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="inlineStr"/>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -24163,14 +23909,8 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="inlineStr"/>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -24204,14 +23944,8 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr"/>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -24245,14 +23979,8 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="inlineStr"/>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -24286,14 +24014,8 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="inlineStr"/>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -24327,14 +24049,8 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="inlineStr"/>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -24368,14 +24084,8 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="inlineStr"/>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -24409,14 +24119,8 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="inlineStr"/>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -24450,14 +24154,8 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="inlineStr"/>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -24491,14 +24189,8 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr"/>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -24532,14 +24224,8 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="inlineStr"/>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -24573,14 +24259,8 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="inlineStr"/>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24614,14 +24294,8 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="inlineStr"/>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24655,14 +24329,8 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="inlineStr"/>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24696,14 +24364,8 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="inlineStr"/>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24737,14 +24399,8 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="inlineStr"/>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24778,14 +24434,8 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="inlineStr"/>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24819,14 +24469,8 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="inlineStr"/>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24860,14 +24504,8 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="inlineStr"/>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24901,14 +24539,8 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="inlineStr"/>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24942,14 +24574,8 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="inlineStr"/>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24983,14 +24609,8 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="inlineStr"/>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -25024,14 +24644,8 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr"/>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -25065,14 +24679,8 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="inlineStr"/>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -25106,14 +24714,8 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="inlineStr"/>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -25147,14 +24749,8 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="inlineStr"/>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -25188,14 +24784,8 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="inlineStr"/>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -25229,14 +24819,8 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="inlineStr"/>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -25270,14 +24854,8 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="inlineStr"/>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -25311,14 +24889,8 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="inlineStr"/>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -25352,14 +24924,8 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="inlineStr"/>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -25393,14 +24959,8 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="inlineStr"/>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25434,14 +24994,8 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="inlineStr"/>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -25475,14 +25029,8 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="inlineStr"/>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -25516,14 +25064,8 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="inlineStr"/>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -25557,14 +25099,8 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="inlineStr"/>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -25598,14 +25134,8 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="inlineStr"/>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -25639,14 +25169,8 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="inlineStr"/>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -25680,14 +25204,8 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
+      <c r="L685" t="inlineStr"/>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -25721,14 +25239,8 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="inlineStr"/>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -25762,14 +25274,8 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="inlineStr"/>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25803,14 +25309,8 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="inlineStr"/>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25844,14 +25344,8 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="inlineStr"/>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -25885,14 +25379,8 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="inlineStr"/>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25926,14 +25414,8 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="inlineStr"/>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25967,14 +25449,8 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="inlineStr"/>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -26008,14 +25484,8 @@
         <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="inlineStr"/>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -26049,14 +25519,8 @@
         <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="inlineStr"/>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -26090,14 +25554,8 @@
         <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="inlineStr"/>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -26131,14 +25589,8 @@
         <v>0</v>
       </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="inlineStr"/>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -26172,14 +25624,8 @@
         <v>0</v>
       </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="inlineStr"/>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -26213,14 +25659,8 @@
         <v>0</v>
       </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="inlineStr"/>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -26254,14 +25694,8 @@
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="inlineStr"/>
       <c r="M699" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-31 BackTest FNB.xlsx
+++ b/BackTest/2019-10-31 BackTest FNB.xlsx
@@ -1903,7 +1903,7 @@
         <v>382314.3132574513</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>382314.3132574513</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1209253.232257451</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1209253.232257451</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1209253.232257451</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>506756.0052574514</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>506756.0052574514</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>707410.6754574515</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>707410.6754574515</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>707410.6754574515</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>452987.7212349082</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>446056.8354349082</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>446056.8354349082</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>446056.8354349082</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>625598.1144349083</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>625598.1144349083</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>258454.9826349083</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>258454.9826349083</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>443908.0699349083</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>443908.0699349083</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>217447.2230349083</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>217447.2230349083</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>260166.9180349083</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>260166.9180349083</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>260166.9180349083</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>237056.3928349083</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>239134.1480349083</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-848437.2508367681</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-898864.5974367681</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-369840.0541367681</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1163453.065236768</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1188432.409036768</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1050416.692836768</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1050416.692836768</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-60930.28063676821</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-77339.1080367682</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-77339.1080367682</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-718124.4786367682</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1063472.959436768</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-679086.6076367681</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-679086.6076367681</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-388073.0407367682</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-734279.8781367682</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-361366.0943367683</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-361366.0943367683</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-124668.0379367683</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-124668.0379367683</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-466237.9036367683</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-995778.2717367683</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-995778.2717367683</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-946872.9710367683</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-886408.1488367682</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-2579002.234336768</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-2482944.376136768</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-2482944.376136768</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-2566279.693636768</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-2549055.076636768</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2805921.435336768</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-2917950.167936768</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-2917950.167936768</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2898679.842436769</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2898699.818336769</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-3364948.543136769</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-3364893.251036768</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-725123.8098299478</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1351597.697529948</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-963157.8901299478</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1845004.144229948</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2152415.943629948</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1675163.983729948</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1676178.133929948</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1955035.480929948</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1785944.941429948</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1914152.925929948</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1914152.925929948</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1914152.925929948</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1916572.835929948</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1885468.505429948</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2362267.236815662</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-7491613.787601375</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-7427387.47215592</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-7630622.07045592</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-8619085.981006382</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-8669105.599006383</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -18667,14 +18667,10 @@
         <v>-15279008.98359339</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J554" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
@@ -18704,19 +18700,11 @@
         <v>-15263323.83069339</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J555" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18745,19 +18733,11 @@
         <v>-14830346.98409339</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J556" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20007,7 +19987,7 @@
         <v>-13246420.42435257</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20040,7 +20020,7 @@
         <v>-13473785.27646677</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20073,7 +20053,7 @@
         <v>-13473017.15886677</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20106,7 +20086,7 @@
         <v>-13473017.15886677</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20139,7 +20119,7 @@
         <v>-13473017.15886677</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20172,7 +20152,7 @@
         <v>-13473131.37996677</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20205,7 +20185,7 @@
         <v>-13498999.09436677</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20238,7 +20218,7 @@
         <v>-13498979.09436677</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20271,7 +20251,7 @@
         <v>-13498979.09436677</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20304,7 +20284,7 @@
         <v>-13499001.06686677</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20766,10 +20746,14 @@
         <v>-13547379.70446677</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J617" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
@@ -20799,11 +20783,19 @@
         <v>-13547379.70446677</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J618" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20835,8 +20827,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20898,10 +20896,14 @@
         <v>-13519148.05376677</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J621" t="n">
+        <v>16.8</v>
+      </c>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
@@ -20931,11 +20933,19 @@
         <v>-13519148.05376677</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J622" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20967,8 +20977,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21393,14 +21409,10 @@
         <v>-14558903.33496677</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="J636" t="n">
-        <v>16.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
@@ -21430,19 +21442,11 @@
         <v>-14558903.33496677</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="J637" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21471,19 +21475,11 @@
         <v>-14558903.33496677</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="J638" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21520,11 +21516,7 @@
       <c r="J639" t="n">
         <v>16.7</v>
       </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21563,7 +21555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L640" t="n">
@@ -21715,11 +21707,9 @@
         <v>-14553812.32346677</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
         <v>16.7</v>
       </c>
@@ -22244,9 +22234,11 @@
         <v>-15955129.43196677</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J657" t="n">
         <v>16.7</v>
       </c>
@@ -22570,9 +22562,11 @@
         <v>-16149868.96216677</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J665" t="n">
         <v>16.7</v>
       </c>
@@ -22609,9 +22603,11 @@
         <v>-15908021.29296677</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J666" t="n">
         <v>16.7</v>
       </c>
@@ -22648,9 +22644,11 @@
         <v>-15828765.66426677</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J667" t="n">
         <v>16.7</v>
       </c>
@@ -22687,9 +22685,11 @@
         <v>-15828787.63676677</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J668" t="n">
         <v>16.7</v>
       </c>
@@ -22726,9 +22726,11 @@
         <v>-15828787.63676677</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J669" t="n">
         <v>16.7</v>
       </c>
@@ -22806,9 +22808,11 @@
         <v>-15829117.93256677</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J671" t="n">
         <v>16.7</v>
       </c>
@@ -22845,9 +22849,11 @@
         <v>-15316360.15316677</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J672" t="n">
         <v>16.7</v>
       </c>
@@ -22884,9 +22890,11 @@
         <v>-15316360.15316677</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J673" t="n">
         <v>16.7</v>
       </c>
@@ -22923,9 +22931,11 @@
         <v>-13829018.2342389</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J674" t="n">
         <v>16.7</v>
       </c>
@@ -23937,7 +23947,7 @@
         <v>-12966629.5970256</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
@@ -23945,11 +23955,11 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L700" t="n">
-        <v>1.000988023952096</v>
+        <v>1</v>
       </c>
       <c r="M700" t="inlineStr"/>
     </row>
@@ -23979,8 +23989,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24009,11 +24025,17 @@
         <v>-12966416.1147256</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24045,8 +24067,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24078,8 +24106,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24111,8 +24145,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24144,8 +24184,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24177,8 +24223,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24210,8 +24262,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24243,8 +24301,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24276,8 +24340,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24306,11 +24376,17 @@
         <v>-12956268.3160256</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24339,11 +24415,17 @@
         <v>-12956256.3160256</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24372,11 +24454,17 @@
         <v>-13541213.1271256</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24405,11 +24493,17 @@
         <v>-13541192.1271256</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24438,11 +24532,17 @@
         <v>-13541192.1271256</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24471,11 +24571,17 @@
         <v>-13530303.4432256</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24504,11 +24610,17 @@
         <v>-13530303.4432256</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24537,11 +24649,17 @@
         <v>-13530303.4432256</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24570,11 +24688,17 @@
         <v>-13473307.5712256</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24603,11 +24727,17 @@
         <v>-13751283.1692256</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24636,11 +24766,17 @@
         <v>-13750506.1692256</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24669,11 +24805,17 @@
         <v>-13780576.5785256</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24705,8 +24847,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24738,8 +24886,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24771,8 +24925,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24804,8 +24964,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24837,8 +25003,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24870,8 +25042,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24903,8 +25081,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24936,8 +25120,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24969,8 +25159,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25002,8 +25198,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25035,8 +25237,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25068,8 +25276,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25101,8 +25315,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25134,8 +25354,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25167,8 +25393,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25200,8 +25432,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25233,8 +25471,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25266,8 +25510,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25299,8 +25549,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25332,8 +25588,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25365,8 +25627,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25398,8 +25666,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25431,8 +25705,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25464,8 +25744,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25497,8 +25783,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25530,8 +25822,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25563,8 +25861,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25593,11 +25897,17 @@
         <v>-13858268.91877211</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25626,11 +25936,17 @@
         <v>-13858268.91877211</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25659,11 +25975,17 @@
         <v>-13858268.91877211</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25692,11 +26014,17 @@
         <v>-14016268.91877211</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25725,11 +26053,17 @@
         <v>-14231709.97757212</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25761,8 +26095,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25794,8 +26134,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25827,8 +26173,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25860,8 +26212,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25890,11 +26248,17 @@
         <v>-14242439.34097211</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25923,11 +26287,17 @@
         <v>-14242439.34097211</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25959,8 +26329,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25992,8 +26368,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26025,8 +26407,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26058,8 +26446,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26091,8 +26485,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26124,8 +26524,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26157,8 +26563,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26190,8 +26602,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
